--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1130000001000084</v>
+        <v>0.5069022353042435</v>
       </c>
       <c r="C2">
-        <v>-0.3130000001000113</v>
+        <v>-1.768726087092867</v>
       </c>
       <c r="D2">
-        <v>1.386999999899992</v>
+        <v>0.5753591407540363</v>
       </c>
       <c r="E2">
-        <v>0.8869999999000058</v>
+        <v>-0.04800876514786478</v>
       </c>
       <c r="F2">
-        <v>-2.413000000099991</v>
+        <v>5.462709330733921</v>
       </c>
       <c r="G2">
-        <v>0.3869999999000058</v>
+        <v>0.497888772914498</v>
       </c>
       <c r="H2">
-        <v>0.186999999900003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.3521538662529956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.3150000001000108</v>
+        <v>-1.813005556311658</v>
       </c>
       <c r="C3">
-        <v>1.384999999899992</v>
+        <v>0.5310796715352453</v>
       </c>
       <c r="D3">
-        <v>0.8849999999000062</v>
+        <v>-0.09228823436665579</v>
       </c>
       <c r="E3">
-        <v>-2.415000000099991</v>
+        <v>5.418429861515129</v>
       </c>
       <c r="F3">
-        <v>0.3849999999000062</v>
+        <v>0.453609303695707</v>
       </c>
       <c r="G3">
-        <v>0.1849999999000034</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.3078743970342046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>1.394999999899994</v>
+        <v>0.8445005399295014</v>
       </c>
       <c r="C4">
-        <v>0.8949999999000084</v>
+        <v>0.2211326340276003</v>
       </c>
       <c r="D4">
-        <v>-2.405000000099989</v>
+        <v>5.731850729909385</v>
       </c>
       <c r="E4">
-        <v>0.3949999999000084</v>
+        <v>0.767030172089963</v>
       </c>
       <c r="F4">
-        <v>0.1949999999000056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.6212952654284607</v>
+      </c>
+      <c r="G4">
+        <v>0.4971820485470204</v>
+      </c>
+      <c r="H4">
+        <v>1.271373231878403</v>
+      </c>
+      <c r="I4">
+        <v>-0.190180343825102</v>
+      </c>
+      <c r="J4">
+        <v>0.410128014204804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.7449999999000099</v>
+        <v>-0.3768185295679458</v>
       </c>
       <c r="C5">
-        <v>-2.555000000099987</v>
+        <v>5.133899566313839</v>
       </c>
       <c r="D5">
-        <v>0.2449999999000099</v>
+        <v>0.169079008494417</v>
       </c>
       <c r="E5">
-        <v>0.04499999990000711</v>
+        <v>0.0233441018329146</v>
       </c>
       <c r="F5">
-        <v>0.3449999999000042</v>
+        <v>-0.1007691150485257</v>
       </c>
       <c r="G5">
-        <v>0.04499999990000711</v>
+        <v>0.6734220682828564</v>
       </c>
       <c r="H5">
-        <v>0.1449999999000156</v>
+        <v>-0.7881315074206481</v>
       </c>
       <c r="I5">
-        <v>0.1449999999000156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-0.187823149390742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-2.639999999999988</v>
+        <v>5.029545179712666</v>
       </c>
       <c r="C6">
-        <v>0.1600000000000094</v>
+        <v>0.06472462189324377</v>
       </c>
       <c r="D6">
-        <v>-0.03999999999999337</v>
+        <v>-0.08101028476825861</v>
       </c>
       <c r="E6">
-        <v>0.2600000000000037</v>
+        <v>-0.2051235016496989</v>
       </c>
       <c r="F6">
-        <v>-0.03999999999999337</v>
+        <v>0.5690676816816833</v>
       </c>
       <c r="G6">
-        <v>0.0600000000000151</v>
+        <v>-0.8924858940218212</v>
       </c>
       <c r="H6">
-        <v>0.0600000000000151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.2921775359919152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.3700000000000074</v>
+        <v>-0.137413759447277</v>
       </c>
       <c r="C7">
-        <v>0.1700000000000046</v>
+        <v>-0.2831486661087794</v>
       </c>
       <c r="D7">
-        <v>0.4700000000000017</v>
+        <v>-0.4072618829902197</v>
       </c>
       <c r="E7">
-        <v>0.1700000000000046</v>
+        <v>0.3669293003411625</v>
       </c>
       <c r="F7">
-        <v>0.2700000000000131</v>
+        <v>-1.094624275362342</v>
       </c>
       <c r="G7">
-        <v>0.2700000000000131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.494315917332436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.1000000000000029</v>
+        <v>-0.1897021710626319</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>-0.3138153879440722</v>
       </c>
       <c r="D8">
-        <v>0.1000000000000029</v>
+        <v>0.46037579538731</v>
       </c>
       <c r="E8">
-        <v>0.2000000000000114</v>
+        <v>-1.001177780316195</v>
       </c>
       <c r="F8">
-        <v>0.2000000000000114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.4008694222862885</v>
+      </c>
+      <c r="G8">
+        <v>-0.3825116209597155</v>
+      </c>
+      <c r="H8">
+        <v>0.3758429424091532</v>
+      </c>
+      <c r="I8">
+        <v>-0.7584425099968086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.3400000000000006</v>
+        <v>-0.7538669319268549</v>
       </c>
       <c r="C9">
-        <v>0.0400000000000035</v>
+        <v>0.0203242514045272</v>
       </c>
       <c r="D9">
-        <v>0.140000000000012</v>
+        <v>-1.441229324298977</v>
       </c>
       <c r="E9">
-        <v>0.140000000000012</v>
+        <v>-0.8409209662690713</v>
       </c>
       <c r="F9">
-        <v>0.2400000000000063</v>
+        <v>-0.8225631649424983</v>
       </c>
       <c r="G9">
-        <v>-0.2599999999999795</v>
+        <v>-0.06420860157362956</v>
       </c>
       <c r="H9">
-        <v>-0.1600000000000136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-1.198494053979591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.1100000000000037</v>
+        <v>0.4503073135717173</v>
       </c>
       <c r="C10">
-        <v>0.2100000000000122</v>
+        <v>-1.011246262131787</v>
       </c>
       <c r="D10">
-        <v>0.2100000000000122</v>
+        <v>-0.4109379041018812</v>
       </c>
       <c r="E10">
-        <v>0.3100000000000065</v>
+        <v>-0.3925801027753081</v>
       </c>
       <c r="F10">
-        <v>-0.1899999999999793</v>
+        <v>0.3657744605935606</v>
       </c>
       <c r="G10">
-        <v>-0.0900000000000134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.7685109918124013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.1800000000000139</v>
+        <v>-0.9542016326501267</v>
       </c>
       <c r="C11">
-        <v>0.1800000000000139</v>
+        <v>-0.3538932746202207</v>
       </c>
       <c r="D11">
-        <v>0.2800000000000082</v>
+        <v>-0.3355354732936476</v>
       </c>
       <c r="E11">
-        <v>-0.2199999999999776</v>
+        <v>0.4228190900752211</v>
       </c>
       <c r="F11">
-        <v>-0.1200000000000117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.7114663623307408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.1900000000000105</v>
+        <v>-0.3135312646359353</v>
       </c>
       <c r="C12">
-        <v>0.2900000000000048</v>
+        <v>-0.2951734633093623</v>
       </c>
       <c r="D12">
-        <v>-0.209999999999981</v>
+        <v>0.4631811000595064</v>
       </c>
       <c r="E12">
-        <v>-0.1100000000000151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.6711043523464554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.2500000000000028</v>
+        <v>-0.2451295611021919</v>
       </c>
       <c r="C13">
-        <v>-0.249999999999983</v>
+        <v>0.5132250022666769</v>
       </c>
       <c r="D13">
-        <v>-0.1500000000000171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.621060450139285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.3199999999999847</v>
+        <v>0.8266790722624406</v>
       </c>
       <c r="C14">
-        <v>-0.2200000000000188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.3076063801435212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0700000000000216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.3469781724577359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5069022353042435</v>
+        <v>0.07535355310267777</v>
       </c>
       <c r="C2">
-        <v>-1.768726087092867</v>
+        <v>-0.1246464468973251</v>
       </c>
       <c r="D2">
-        <v>0.5753591407540363</v>
+        <v>1.575353553102678</v>
       </c>
       <c r="E2">
-        <v>-0.04800876514786478</v>
+        <v>1.075353553102692</v>
       </c>
       <c r="F2">
-        <v>5.462709330733921</v>
+        <v>-2.224646446897305</v>
       </c>
       <c r="G2">
-        <v>0.497888772914498</v>
+        <v>0.575353553102692</v>
       </c>
       <c r="H2">
-        <v>0.3521538662529956</v>
+        <v>0.3753535531026892</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-1.813005556311658</v>
+        <v>-0.1689259161161161</v>
       </c>
       <c r="C3">
-        <v>0.5310796715352453</v>
+        <v>1.531074083883887</v>
       </c>
       <c r="D3">
-        <v>-0.09228823436665579</v>
+        <v>1.031074083883901</v>
       </c>
       <c r="E3">
-        <v>5.418429861515129</v>
+        <v>-2.268925916116096</v>
       </c>
       <c r="F3">
-        <v>0.453609303695707</v>
+        <v>0.531074083883901</v>
       </c>
       <c r="G3">
-        <v>0.3078743970342046</v>
+        <v>0.3310740838838982</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.8445005399295014</v>
+        <v>1.844494952278143</v>
       </c>
       <c r="C4">
-        <v>0.2211326340276003</v>
+        <v>1.344494952278157</v>
       </c>
       <c r="D4">
-        <v>5.731850729909385</v>
+        <v>-1.95550504772184</v>
       </c>
       <c r="E4">
-        <v>0.767030172089963</v>
+        <v>0.8444949522781571</v>
       </c>
       <c r="F4">
-        <v>0.6212952654284607</v>
+        <v>0.6444949522781542</v>
       </c>
       <c r="G4">
-        <v>0.4971820485470204</v>
+        <v>0.9444949522781514</v>
       </c>
       <c r="H4">
-        <v>1.271373231878403</v>
+        <v>0.6444949522781542</v>
       </c>
       <c r="I4">
-        <v>-0.190180343825102</v>
+        <v>0.7444949522781628</v>
       </c>
       <c r="J4">
-        <v>0.410128014204804</v>
+        <v>0.7444949522781628</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.3768185295679458</v>
+        <v>0.746543788682611</v>
       </c>
       <c r="C5">
-        <v>5.133899566313839</v>
+        <v>-2.553456211317386</v>
       </c>
       <c r="D5">
-        <v>0.169079008494417</v>
+        <v>0.246543788682611</v>
       </c>
       <c r="E5">
-        <v>0.0233441018329146</v>
+        <v>0.04654378868260822</v>
       </c>
       <c r="F5">
-        <v>-0.1007691150485257</v>
+        <v>0.3465437886826053</v>
       </c>
       <c r="G5">
-        <v>0.6734220682828564</v>
+        <v>0.04654378868260822</v>
       </c>
       <c r="H5">
-        <v>-0.7881315074206481</v>
+        <v>0.1465437886826167</v>
       </c>
       <c r="I5">
-        <v>-0.187823149390742</v>
+        <v>0.1465437886826167</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>5.029545179712666</v>
+        <v>-2.65781059791856</v>
       </c>
       <c r="C6">
-        <v>0.06472462189324377</v>
+        <v>0.1421894020814378</v>
       </c>
       <c r="D6">
-        <v>-0.08101028476825861</v>
+        <v>-0.05781059791856499</v>
       </c>
       <c r="E6">
-        <v>-0.2051235016496989</v>
+        <v>0.2421894020814321</v>
       </c>
       <c r="F6">
-        <v>0.5690676816816833</v>
+        <v>-0.05781059791856499</v>
       </c>
       <c r="G6">
-        <v>-0.8924858940218212</v>
+        <v>0.04218940208144348</v>
       </c>
       <c r="H6">
-        <v>-0.2921775359919152</v>
+        <v>0.04218940208144348</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.137413759447277</v>
+        <v>-0.059948979259083</v>
       </c>
       <c r="C7">
-        <v>-0.2831486661087794</v>
+        <v>-0.2599489792590858</v>
       </c>
       <c r="D7">
-        <v>-0.4072618829902197</v>
+        <v>0.04005102074091132</v>
       </c>
       <c r="E7">
-        <v>0.3669293003411625</v>
+        <v>-0.2599489792590858</v>
       </c>
       <c r="F7">
-        <v>-1.094624275362342</v>
+        <v>-0.1599489792590773</v>
       </c>
       <c r="G7">
-        <v>-0.494315917332436</v>
+        <v>-0.1599489792590773</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.1897021710626319</v>
+        <v>-0.1665024842129383</v>
       </c>
       <c r="C8">
-        <v>-0.3138153879440722</v>
+        <v>0.1334975157870588</v>
       </c>
       <c r="D8">
-        <v>0.46037579538731</v>
+        <v>-0.1665024842129383</v>
       </c>
       <c r="E8">
-        <v>-1.001177780316195</v>
+        <v>-0.06650248421292981</v>
       </c>
       <c r="F8">
-        <v>-0.4008694222862885</v>
+        <v>-0.06650248421292981</v>
       </c>
       <c r="G8">
-        <v>-0.3825116209597155</v>
+        <v>0.0334975157870645</v>
       </c>
       <c r="H8">
-        <v>0.3758429424091532</v>
+        <v>-0.4665024842129213</v>
       </c>
       <c r="I8">
-        <v>-0.7584425099968086</v>
+        <v>-0.3665024842129554</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.7538669319268549</v>
+        <v>-0.306554028195724</v>
       </c>
       <c r="C9">
-        <v>0.0203242514045272</v>
+        <v>-0.6065540281957211</v>
       </c>
       <c r="D9">
-        <v>-1.441229324298977</v>
+        <v>-0.5065540281957126</v>
       </c>
       <c r="E9">
-        <v>-0.8409209662690713</v>
+        <v>-0.5065540281957126</v>
       </c>
       <c r="F9">
-        <v>-0.8225631649424983</v>
+        <v>-0.4065540281957183</v>
       </c>
       <c r="G9">
-        <v>-0.06420860157362956</v>
+        <v>-0.9065540281957041</v>
       </c>
       <c r="H9">
-        <v>-1.198494053979591</v>
+        <v>-0.8065540281957382</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.4503073135717173</v>
+        <v>-0.176570966028531</v>
       </c>
       <c r="C10">
-        <v>-1.011246262131787</v>
+        <v>-0.07657096602852248</v>
       </c>
       <c r="D10">
-        <v>-0.4109379041018812</v>
+        <v>-0.07657096602852248</v>
       </c>
       <c r="E10">
-        <v>-0.3925801027753081</v>
+        <v>0.02342903397147183</v>
       </c>
       <c r="F10">
-        <v>0.3657744605935606</v>
+        <v>-0.476570966028514</v>
       </c>
       <c r="G10">
-        <v>-0.7685109918124013</v>
+        <v>-0.3765709660285481</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.9542016326501267</v>
+        <v>-0.01952633654686198</v>
       </c>
       <c r="C11">
-        <v>-0.3538932746202207</v>
+        <v>-0.01952633654686198</v>
       </c>
       <c r="D11">
-        <v>-0.3355354732936476</v>
+        <v>0.08047366345313234</v>
       </c>
       <c r="E11">
-        <v>0.4228190900752211</v>
+        <v>-0.4195263365468535</v>
       </c>
       <c r="F11">
-        <v>-0.7114663623307408</v>
+        <v>-0.3195263365468876</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.3135312646359353</v>
+        <v>0.02083567343742339</v>
       </c>
       <c r="C12">
-        <v>-0.2951734633093623</v>
+        <v>0.1208356734374177</v>
       </c>
       <c r="D12">
-        <v>0.4631811000595064</v>
+        <v>-0.3791643265625681</v>
       </c>
       <c r="E12">
-        <v>-0.6711043523464554</v>
+        <v>-0.2791643265626022</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.2451295611021919</v>
+        <v>0.1708795756445881</v>
       </c>
       <c r="C13">
-        <v>0.5132250022666769</v>
+        <v>-0.3291204243553977</v>
       </c>
       <c r="D13">
-        <v>-0.621060450139285</v>
+        <v>-0.2291204243554318</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0.8266790722624406</v>
+        <v>-0.01566635435963382</v>
       </c>
       <c r="C14">
-        <v>-0.3076063801435212</v>
+        <v>0.08433364564033208</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.3469781724577359</v>
+        <v>0.0449618533261173</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.8805955657593145</v>
+      </c>
+      <c r="C2">
+        <v>-0.5069528242616244</v>
+      </c>
+      <c r="D2">
+        <v>-0.4339688269606157</v>
+      </c>
+      <c r="E2">
+        <v>0.45159767760466</v>
+      </c>
+      <c r="F2">
+        <v>0.1243398154871258</v>
+      </c>
+      <c r="G2">
+        <v>-0.2009772202714615</v>
+      </c>
+      <c r="H2">
+        <v>0.2582808084970978</v>
+      </c>
+      <c r="I2">
+        <v>0.5746033304100919</v>
+      </c>
+      <c r="J2">
+        <v>-0.6950333578593086</v>
+      </c>
+      <c r="K2">
+        <v>1.467849565765938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-0.4407484308331164</v>
+      </c>
+      <c r="C3">
+        <v>0.4448180737321593</v>
+      </c>
+      <c r="D3">
+        <v>0.1175602116146251</v>
+      </c>
+      <c r="E3">
+        <v>-0.2077568241439622</v>
+      </c>
+      <c r="F3">
+        <v>0.2515012046245971</v>
+      </c>
+      <c r="G3">
+        <v>0.5678237265375912</v>
+      </c>
+      <c r="H3">
+        <v>-0.7018129617318094</v>
+      </c>
+      <c r="I3">
+        <v>1.461069961893438</v>
+      </c>
+      <c r="J3">
+        <v>-0.7509096299062663</v>
+      </c>
+      <c r="K3">
+        <v>0.5476509434620112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.2711396214414833</v>
+      </c>
+      <c r="C4">
+        <v>-0.05417741431710399</v>
+      </c>
+      <c r="D4">
+        <v>0.4050806144514553</v>
+      </c>
+      <c r="E4">
+        <v>0.7214031363644493</v>
+      </c>
+      <c r="F4">
+        <v>-0.5482335519049512</v>
+      </c>
+      <c r="G4">
+        <v>1.614649371720296</v>
+      </c>
+      <c r="H4">
+        <v>-0.5973302200794081</v>
+      </c>
+      <c r="I4">
+        <v>0.7012303532888694</v>
+      </c>
+      <c r="J4">
+        <v>-0.7661743520781902</v>
+      </c>
+      <c r="K4">
+        <v>-0.06870760544149734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.2998664373857821</v>
+      </c>
+      <c r="C5">
+        <v>0.6161889592987762</v>
+      </c>
+      <c r="D5">
+        <v>-0.6534477289706243</v>
+      </c>
+      <c r="E5">
+        <v>1.509435194654623</v>
+      </c>
+      <c r="F5">
+        <v>-0.7025443971450812</v>
+      </c>
+      <c r="G5">
+        <v>0.5960161762231962</v>
+      </c>
+      <c r="H5">
+        <v>-0.8713885291438633</v>
+      </c>
+      <c r="I5">
+        <v>-0.1739217825071705</v>
+      </c>
+      <c r="J5">
+        <v>-0.1347526699784595</v>
+      </c>
+      <c r="K5">
+        <v>-0.1604370240470189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.6248933396382226</v>
+      </c>
+      <c r="C6">
+        <v>1.537989583987024</v>
+      </c>
+      <c r="D6">
+        <v>-0.6739900078126795</v>
+      </c>
+      <c r="E6">
+        <v>0.624570565555598</v>
+      </c>
+      <c r="F6">
+        <v>-0.8428341398114616</v>
+      </c>
+      <c r="G6">
+        <v>-0.1453673931747687</v>
+      </c>
+      <c r="H6">
+        <v>-0.1061982806460577</v>
+      </c>
+      <c r="I6">
+        <v>-0.1318826347146171</v>
+      </c>
+      <c r="J6">
+        <v>0.2521925871408797</v>
+      </c>
+      <c r="K6">
+        <v>0.695163569424335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.4457899190921821</v>
+      </c>
+      <c r="C7">
+        <v>0.8527706542760953</v>
+      </c>
+      <c r="D7">
+        <v>-0.6146340510909643</v>
+      </c>
+      <c r="E7">
+        <v>0.08283269554572859</v>
+      </c>
+      <c r="F7">
+        <v>0.1220018080744396</v>
+      </c>
+      <c r="G7">
+        <v>0.09631745400588021</v>
+      </c>
+      <c r="H7">
+        <v>0.480392675861377</v>
+      </c>
+      <c r="I7">
+        <v>0.9233636581448323</v>
+      </c>
+      <c r="J7">
+        <v>0.301972700247471</v>
+      </c>
+      <c r="K7">
+        <v>0.5338778105742918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.6684280560340956</v>
+      </c>
+      <c r="C8">
+        <v>0.02903869060259723</v>
+      </c>
+      <c r="D8">
+        <v>0.06820780313130825</v>
+      </c>
+      <c r="E8">
+        <v>0.04252344906274885</v>
+      </c>
+      <c r="F8">
+        <v>0.4265986709182457</v>
+      </c>
+      <c r="G8">
+        <v>0.869569653201701</v>
+      </c>
+      <c r="H8">
+        <v>0.2481786953043396</v>
+      </c>
+      <c r="I8">
+        <v>0.4800838056311604</v>
+      </c>
+      <c r="J8">
+        <v>0.762484353232189</v>
+      </c>
+      <c r="K8">
+        <v>0.8342299225018408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.03370745805874265</v>
+      </c>
+      <c r="C9">
+        <v>0.008023103990183245</v>
+      </c>
+      <c r="D9">
+        <v>0.3920983258456801</v>
+      </c>
+      <c r="E9">
+        <v>0.8350693081291354</v>
+      </c>
+      <c r="F9">
+        <v>0.213678350231774</v>
+      </c>
+      <c r="G9">
+        <v>0.4455834605585948</v>
+      </c>
+      <c r="H9">
+        <v>0.7279840081596234</v>
+      </c>
+      <c r="I9">
+        <v>0.7997295774292752</v>
+      </c>
+      <c r="J9">
+        <v>0.1336354972235653</v>
+      </c>
+      <c r="K9">
+        <v>0.9314921964568299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.2329719399111141</v>
+      </c>
+      <c r="C10">
+        <v>0.6759429221945694</v>
+      </c>
+      <c r="D10">
+        <v>0.0545519642972081</v>
+      </c>
+      <c r="E10">
+        <v>0.2864570746240289</v>
+      </c>
+      <c r="F10">
+        <v>0.5688576222250575</v>
+      </c>
+      <c r="G10">
+        <v>0.6406031914947093</v>
+      </c>
+      <c r="H10">
+        <v>-0.02549088871100058</v>
+      </c>
+      <c r="I10">
+        <v>0.7723658105222641</v>
+      </c>
+      <c r="J10">
+        <v>0.002159117886240847</v>
+      </c>
+      <c r="K10">
+        <v>-0.0184117566052564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.0378385142088235</v>
+      </c>
+      <c r="C11">
+        <v>0.1940665961179973</v>
+      </c>
+      <c r="D11">
+        <v>0.4764671437190259</v>
+      </c>
+      <c r="E11">
+        <v>0.5482127129886777</v>
+      </c>
+      <c r="F11">
+        <v>-0.1178813672170322</v>
+      </c>
+      <c r="G11">
+        <v>0.6799753320162325</v>
+      </c>
+      <c r="H11">
+        <v>-0.09023136061979076</v>
+      </c>
+      <c r="I11">
+        <v>-0.110802235111288</v>
+      </c>
+      <c r="J11">
+        <v>-0.3019400804496201</v>
+      </c>
+      <c r="K11">
+        <v>0.009224309935027042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.3065727458872587</v>
+      </c>
+      <c r="C12">
+        <v>0.3783183151569105</v>
+      </c>
+      <c r="D12">
+        <v>-0.2877757650487994</v>
+      </c>
+      <c r="E12">
+        <v>0.5100809341844652</v>
+      </c>
+      <c r="F12">
+        <v>-0.2601257584515579</v>
+      </c>
+      <c r="G12">
+        <v>-0.2806966329430552</v>
+      </c>
+      <c r="H12">
+        <v>-0.4718344782813872</v>
+      </c>
+      <c r="I12">
+        <v>-0.1606700878967402</v>
+      </c>
+      <c r="J12">
+        <v>-0.5133648794547057</v>
+      </c>
+      <c r="K12">
+        <v>-0.4946652875150832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.2377878758680268</v>
+      </c>
+      <c r="C13">
+        <v>0.5600688233652378</v>
+      </c>
+      <c r="D13">
+        <v>-0.2101378692707854</v>
+      </c>
+      <c r="E13">
+        <v>-0.2307087437622826</v>
+      </c>
+      <c r="F13">
+        <v>-0.4218465891006147</v>
+      </c>
+      <c r="G13">
+        <v>-0.1106821987159676</v>
+      </c>
+      <c r="H13">
+        <v>-0.4633769902739331</v>
+      </c>
+      <c r="I13">
+        <v>-0.4446773983343106</v>
+      </c>
+      <c r="J13">
+        <v>-1.039922538775418</v>
+      </c>
+      <c r="K13">
+        <v>-0.6574085351318828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.1932737837318953</v>
+      </c>
+      <c r="C14">
+        <v>-0.2138446582233925</v>
+      </c>
+      <c r="D14">
+        <v>-0.4049825035617246</v>
+      </c>
+      <c r="E14">
+        <v>-0.09381811317707747</v>
+      </c>
+      <c r="F14">
+        <v>-0.446512904735043</v>
+      </c>
+      <c r="G14">
+        <v>-0.4278133127954206</v>
+      </c>
+      <c r="H14">
+        <v>-1.023058453236528</v>
+      </c>
+      <c r="I14">
+        <v>-0.6405444495929927</v>
+      </c>
+      <c r="J14">
+        <v>-0.2371643746415927</v>
+      </c>
+      <c r="K14">
+        <v>-0.9198136108375353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-0.4664896306098129</v>
+      </c>
+      <c r="C15">
+        <v>-0.1553252402251658</v>
+      </c>
+      <c r="D15">
+        <v>-0.5080200317831313</v>
+      </c>
+      <c r="E15">
+        <v>-0.4893204398435088</v>
+      </c>
+      <c r="F15">
+        <v>-1.084565580284617</v>
+      </c>
+      <c r="G15">
+        <v>-0.702051576641081</v>
+      </c>
+      <c r="H15">
+        <v>-0.298671501689681</v>
+      </c>
+      <c r="I15">
+        <v>-0.9813207378856236</v>
+      </c>
+      <c r="J15">
+        <v>-0.7888209698777743</v>
+      </c>
+      <c r="K15">
+        <v>-0.0974783708198558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.3945632501644212</v>
+      </c>
+      <c r="C16">
+        <v>-0.3758636582247987</v>
+      </c>
+      <c r="D16">
+        <v>-0.9711087986659064</v>
+      </c>
+      <c r="E16">
+        <v>-0.5885947950223709</v>
+      </c>
+      <c r="F16">
+        <v>-0.1852147200709709</v>
+      </c>
+      <c r="G16">
+        <v>-0.8678639562669135</v>
+      </c>
+      <c r="H16">
+        <v>-0.6753641882590642</v>
+      </c>
+      <c r="I16">
+        <v>0.01597841079885431</v>
+      </c>
+      <c r="J16">
+        <v>-0.1349179133349992</v>
+      </c>
+      <c r="K16">
+        <v>0.1160687720202162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.9318112884824229</v>
+      </c>
+      <c r="C17">
+        <v>-0.5492972848388874</v>
+      </c>
+      <c r="D17">
+        <v>-0.1459172098874874</v>
+      </c>
+      <c r="E17">
+        <v>-0.82856644608343</v>
+      </c>
+      <c r="F17">
+        <v>-0.6360666780755807</v>
+      </c>
+      <c r="G17">
+        <v>0.0552759209823378</v>
+      </c>
+      <c r="H17">
+        <v>-0.09562040315151571</v>
+      </c>
+      <c r="I17">
+        <v>0.1553662822036997</v>
+      </c>
+      <c r="J17">
+        <v>0.3589200232542836</v>
+      </c>
+      <c r="K17">
+        <v>-0.1766892918391264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.0110805194107314</v>
+      </c>
+      <c r="C18">
+        <v>-0.6715687167852111</v>
+      </c>
+      <c r="D18">
+        <v>-0.4790689487773619</v>
+      </c>
+      <c r="E18">
+        <v>0.2122736502805566</v>
+      </c>
+      <c r="F18">
+        <v>0.0613773261467031</v>
+      </c>
+      <c r="G18">
+        <v>0.3123640115019185</v>
+      </c>
+      <c r="H18">
+        <v>0.5159177525525025</v>
+      </c>
+      <c r="I18">
+        <v>-0.01969156254090759</v>
+      </c>
+      <c r="J18">
+        <v>1.004636501879239</v>
+      </c>
+      <c r="K18">
+        <v>-0.1048325381916953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.4285661558808684</v>
+      </c>
+      <c r="C19">
+        <v>0.2627764431770501</v>
+      </c>
+      <c r="D19">
+        <v>0.1118801190431966</v>
+      </c>
+      <c r="E19">
+        <v>0.362866804398412</v>
+      </c>
+      <c r="F19">
+        <v>0.5664205454489959</v>
+      </c>
+      <c r="G19">
+        <v>0.03081123035558586</v>
+      </c>
+      <c r="H19">
+        <v>1.055139294775732</v>
+      </c>
+      <c r="I19">
+        <v>-0.05432974529520185</v>
+      </c>
+      <c r="J19">
+        <v>0.3310718212921344</v>
+      </c>
+      <c r="K19">
+        <v>-1.097000022530988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.3830015867554792</v>
+      </c>
+      <c r="C20">
+        <v>0.6339882721106946</v>
+      </c>
+      <c r="D20">
+        <v>0.8375420131612785</v>
+      </c>
+      <c r="E20">
+        <v>0.3019326980678685</v>
+      </c>
+      <c r="F20">
+        <v>1.326260762488015</v>
+      </c>
+      <c r="G20">
+        <v>0.2167917224170808</v>
+      </c>
+      <c r="H20">
+        <v>0.602193289004417</v>
+      </c>
+      <c r="I20">
+        <v>-0.8258785548187051</v>
+      </c>
+      <c r="J20">
+        <v>1.102193289004417</v>
+      </c>
+      <c r="K20">
+        <v>0.2999015242756358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.7187022654200603</v>
+      </c>
+      <c r="C21">
+        <v>0.1830929503266503</v>
+      </c>
+      <c r="D21">
+        <v>1.207421014746797</v>
+      </c>
+      <c r="E21">
+        <v>0.09795197467586259</v>
+      </c>
+      <c r="F21">
+        <v>0.4833535412631988</v>
+      </c>
+      <c r="G21">
+        <v>-0.9447183025599233</v>
+      </c>
+      <c r="H21">
+        <v>0.9833535412631988</v>
+      </c>
+      <c r="I21">
+        <v>0.1810617765344176</v>
+      </c>
+      <c r="J21">
+        <v>-0.0715303516498722</v>
+      </c>
+      <c r="K21">
+        <v>0.3338898198501539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1.123495766491723</v>
+      </c>
+      <c r="C22">
+        <v>0.01402672642078928</v>
+      </c>
+      <c r="D22">
+        <v>0.3994282930081255</v>
+      </c>
+      <c r="E22">
+        <v>-1.028643550814996</v>
+      </c>
+      <c r="F22">
+        <v>0.8994282930081254</v>
+      </c>
+      <c r="G22">
+        <v>0.09713652827934427</v>
+      </c>
+      <c r="H22">
+        <v>-0.1554555999049455</v>
+      </c>
+      <c r="I22">
+        <v>0.2499645715950806</v>
+      </c>
+      <c r="J22">
+        <v>0.3994282930081255</v>
+      </c>
+      <c r="K22">
+        <v>-0.8507567514039126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.0845169590692777</v>
+      </c>
+      <c r="C23">
+        <v>0.4699185256566139</v>
+      </c>
+      <c r="D23">
+        <v>-0.9581533181665082</v>
+      </c>
+      <c r="E23">
+        <v>0.9699185256566139</v>
+      </c>
+      <c r="F23">
+        <v>0.1676267609278327</v>
+      </c>
+      <c r="G23">
+        <v>-0.08496536725645709</v>
+      </c>
+      <c r="H23">
+        <v>0.320454804243569</v>
+      </c>
+      <c r="I23">
+        <v>0.4699185256566139</v>
+      </c>
+      <c r="J23">
+        <v>-0.7802665187554242</v>
+      </c>
+      <c r="K23">
+        <v>0.319918526656609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.3201207502572302</v>
+      </c>
+      <c r="C24">
+        <v>-1.107951093565892</v>
+      </c>
+      <c r="D24">
+        <v>0.8201207502572303</v>
+      </c>
+      <c r="E24">
+        <v>0.01782898552844903</v>
+      </c>
+      <c r="F24">
+        <v>-0.2347631426558408</v>
+      </c>
+      <c r="G24">
+        <v>0.1706570288441854</v>
+      </c>
+      <c r="H24">
+        <v>0.3201207502572302</v>
+      </c>
+      <c r="I24">
+        <v>-0.9300642941548078</v>
+      </c>
+      <c r="J24">
+        <v>0.1701207512572254</v>
+      </c>
+      <c r="K24">
+        <v>-0.1798792497427868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-1.16904356120005</v>
+      </c>
+      <c r="C25">
+        <v>0.7590282826230719</v>
+      </c>
+      <c r="D25">
+        <v>-0.04326348210570935</v>
+      </c>
+      <c r="E25">
+        <v>-0.2958556102899991</v>
+      </c>
+      <c r="F25">
+        <v>0.109564561210027</v>
+      </c>
+      <c r="G25">
+        <v>0.2590282826230719</v>
+      </c>
+      <c r="H25">
+        <v>-0.9911567617889663</v>
+      </c>
+      <c r="I25">
+        <v>0.109028283623067</v>
+      </c>
+      <c r="J25">
+        <v>-0.2409717173769452</v>
+      </c>
+      <c r="K25">
+        <v>-0.2409717173769452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.6149641855475096</v>
+      </c>
+      <c r="C26">
+        <v>-0.1873275791812716</v>
+      </c>
+      <c r="D26">
+        <v>-0.4399197073655614</v>
+      </c>
+      <c r="E26">
+        <v>-0.03449953586553528</v>
+      </c>
+      <c r="F26">
+        <v>0.1149641855475096</v>
+      </c>
+      <c r="G26">
+        <v>-1.135220858864529</v>
+      </c>
+      <c r="H26">
+        <v>-0.03503581345249529</v>
+      </c>
+      <c r="I26">
+        <v>-0.3850358144525075</v>
+      </c>
+      <c r="J26">
+        <v>-0.3850358144525075</v>
+      </c>
+      <c r="K26">
+        <v>-0.4850358144524876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.1380180072121575</v>
+      </c>
+      <c r="C27">
+        <v>-0.3906101353964473</v>
+      </c>
+      <c r="D27">
+        <v>0.01481003610357884</v>
+      </c>
+      <c r="E27">
+        <v>0.1642737575166237</v>
+      </c>
+      <c r="F27">
+        <v>-1.085911286895414</v>
+      </c>
+      <c r="G27">
+        <v>0.01427375851661883</v>
+      </c>
+      <c r="H27">
+        <v>-0.3357262424833933</v>
+      </c>
+      <c r="I27">
+        <v>-0.3357262424833933</v>
+      </c>
+      <c r="J27">
+        <v>-0.4357262424833734</v>
+      </c>
+      <c r="K27">
+        <v>1.164273757516621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.4592011926609609</v>
+      </c>
+      <c r="C28">
+        <v>-0.05378102116093481</v>
+      </c>
+      <c r="D28">
+        <v>0.09568270025211006</v>
+      </c>
+      <c r="E28">
+        <v>-1.154502344159928</v>
+      </c>
+      <c r="F28">
+        <v>-0.05431729874789482</v>
+      </c>
+      <c r="G28">
+        <v>-0.404317299747907</v>
+      </c>
+      <c r="H28">
+        <v>-0.404317299747907</v>
+      </c>
+      <c r="I28">
+        <v>-0.5043172997478871</v>
+      </c>
+      <c r="J28">
+        <v>1.095682700252107</v>
+      </c>
+      <c r="K28">
+        <v>-0.2043172997478757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.04824321521206659</v>
+      </c>
+      <c r="C29">
+        <v>0.1977069366251115</v>
+      </c>
+      <c r="D29">
+        <v>-1.052478107786927</v>
+      </c>
+      <c r="E29">
+        <v>0.04770693762510658</v>
+      </c>
+      <c r="F29">
+        <v>-0.3022930633749056</v>
+      </c>
+      <c r="G29">
+        <v>-0.3022930633749056</v>
+      </c>
+      <c r="H29">
+        <v>-0.4022930633748857</v>
+      </c>
+      <c r="I29">
+        <v>1.197706936625109</v>
+      </c>
+      <c r="J29">
+        <v>-0.1022930633748743</v>
+      </c>
+      <c r="K29">
+        <v>0.3977069366250831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.2560424256294467</v>
+      </c>
+      <c r="C30">
+        <v>-0.9941426187825915</v>
+      </c>
+      <c r="D30">
+        <v>0.1060424266294418</v>
+      </c>
+      <c r="E30">
+        <v>-0.2439575743705704</v>
+      </c>
+      <c r="F30">
+        <v>-0.2439575743705704</v>
+      </c>
+      <c r="G30">
+        <v>-0.3439575743705505</v>
+      </c>
+      <c r="H30">
+        <v>1.256042425629444</v>
+      </c>
+      <c r="I30">
+        <v>-0.0439575743705391</v>
+      </c>
+      <c r="J30">
+        <v>0.4560424256294183</v>
+      </c>
+      <c r="K30">
+        <v>-0.04395757437056752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>-0.9396880804104415</v>
+      </c>
+      <c r="C31">
+        <v>0.1604969650015917</v>
+      </c>
+      <c r="D31">
+        <v>-0.1895030359984204</v>
+      </c>
+      <c r="E31">
+        <v>-0.1895030359984204</v>
+      </c>
+      <c r="F31">
+        <v>-0.2895030359984005</v>
+      </c>
+      <c r="G31">
+        <v>1.310496964001594</v>
+      </c>
+      <c r="H31">
+        <v>0.01049696400161082</v>
+      </c>
+      <c r="I31">
+        <v>0.5104969640015682</v>
+      </c>
+      <c r="J31">
+        <v>0.0104969640015824</v>
+      </c>
+      <c r="K31">
+        <v>-0.1895030359984204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0.13244599718079</v>
+      </c>
+      <c r="C32">
+        <v>-0.2175540038192221</v>
+      </c>
+      <c r="D32">
+        <v>-0.2175540038192221</v>
+      </c>
+      <c r="E32">
+        <v>-0.3175540038192022</v>
+      </c>
+      <c r="F32">
+        <v>1.282445996180792</v>
+      </c>
+      <c r="G32">
+        <v>-0.01755400381919087</v>
+      </c>
+      <c r="H32">
+        <v>0.4824459961807665</v>
+      </c>
+      <c r="I32">
+        <v>-0.01755400381921929</v>
+      </c>
+      <c r="J32">
+        <v>-0.2175540038192221</v>
+      </c>
+      <c r="K32">
+        <v>1.482445996180781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-0.0383647352326586</v>
+      </c>
+      <c r="C33">
+        <v>-0.0383647352326586</v>
+      </c>
+      <c r="D33">
+        <v>-0.1383647352326387</v>
+      </c>
+      <c r="E33">
+        <v>1.461635264767356</v>
+      </c>
+      <c r="F33">
+        <v>0.1616352647673727</v>
+      </c>
+      <c r="G33">
+        <v>0.66163526476733</v>
+      </c>
+      <c r="H33">
+        <v>0.1616352647673442</v>
+      </c>
+      <c r="I33">
+        <v>-0.0383647352326586</v>
+      </c>
+      <c r="J33">
+        <v>1.661635264767344</v>
+      </c>
+      <c r="K33">
+        <v>1.161635264767358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0.1112330760475777</v>
+      </c>
+      <c r="C34">
+        <v>0.0112330760475976</v>
+      </c>
+      <c r="D34">
+        <v>1.611233076047592</v>
+      </c>
+      <c r="E34">
+        <v>0.311233076047609</v>
+      </c>
+      <c r="F34">
+        <v>0.8112330760475663</v>
+      </c>
+      <c r="G34">
+        <v>0.3112330760475805</v>
+      </c>
+      <c r="H34">
+        <v>0.1112330760475777</v>
+      </c>
+      <c r="I34">
+        <v>1.811233076047581</v>
+      </c>
+      <c r="J34">
+        <v>1.311233076047595</v>
+      </c>
+      <c r="K34">
+        <v>-1.988766923952402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-0.1162576147101385</v>
+      </c>
+      <c r="C35">
+        <v>1.483742385289856</v>
+      </c>
+      <c r="D35">
+        <v>0.1837423852898729</v>
+      </c>
+      <c r="E35">
+        <v>0.6837423852898302</v>
+      </c>
+      <c r="F35">
+        <v>0.1837423852898444</v>
+      </c>
+      <c r="G35">
+        <v>-0.01625761471015841</v>
+      </c>
+      <c r="H35">
+        <v>1.683742385289845</v>
+      </c>
+      <c r="I35">
+        <v>1.183742385289859</v>
+      </c>
+      <c r="J35">
+        <v>-2.116257614710138</v>
+      </c>
+      <c r="K35">
+        <v>0.6837423852898586</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>1.562570074431024</v>
+      </c>
+      <c r="C36">
+        <v>0.2625700744310413</v>
+      </c>
+      <c r="D36">
+        <v>0.7625700744309987</v>
+      </c>
+      <c r="E36">
+        <v>0.2625700744310129</v>
+      </c>
+      <c r="F36">
+        <v>0.06257007443101004</v>
+      </c>
+      <c r="G36">
+        <v>1.762570074431013</v>
+      </c>
+      <c r="H36">
+        <v>1.262570074431027</v>
+      </c>
+      <c r="I36">
+        <v>-2.03742992556897</v>
+      </c>
+      <c r="J36">
+        <v>0.7625700744310271</v>
+      </c>
+      <c r="K36">
+        <v>0.5625700744310242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0.08269979282388107</v>
+      </c>
+      <c r="C37">
+        <v>0.5826997928238384</v>
+      </c>
+      <c r="D37">
+        <v>0.08269979282385265</v>
+      </c>
+      <c r="E37">
+        <v>-0.1173002071761502</v>
+      </c>
+      <c r="F37">
+        <v>1.582699792823853</v>
+      </c>
+      <c r="G37">
+        <v>1.082699792823867</v>
+      </c>
+      <c r="H37">
+        <v>-2.21730020717613</v>
+      </c>
+      <c r="I37">
+        <v>0.5826997928238669</v>
+      </c>
+      <c r="J37">
+        <v>0.3826997928238641</v>
+      </c>
+      <c r="K37">
+        <v>0.6826997928238612</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0.6947502057049689</v>
+      </c>
+      <c r="C38">
+        <v>0.1947502057049831</v>
+      </c>
+      <c r="D38">
+        <v>-0.005249794295019705</v>
+      </c>
+      <c r="E38">
+        <v>1.694750205704983</v>
+      </c>
+      <c r="F38">
+        <v>1.194750205704997</v>
+      </c>
+      <c r="G38">
+        <v>-2.105249794295</v>
+      </c>
+      <c r="H38">
+        <v>0.6947502057049973</v>
+      </c>
+      <c r="I38">
+        <v>0.4947502057049946</v>
+      </c>
+      <c r="J38">
+        <v>0.7947502057049917</v>
+      </c>
+      <c r="K38">
+        <v>0.4947502057049946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>0.07535355310267777</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>-0.1246464468973251</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>1.575353553102678</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>1.075353553102692</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>-2.224646446897305</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>0.575353553102692</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>0.3753535531026892</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.6753535531026863</v>
+      </c>
+      <c r="J39">
+        <v>0.3753535531026892</v>
+      </c>
+      <c r="K39">
+        <v>0.4753535531026977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>-0.1689259161161161</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>1.531074083883887</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>1.031074083883901</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>-2.268925916116096</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>0.531074083883901</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>0.3310740838838982</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>0.6310740838838953</v>
+      </c>
+      <c r="I40">
+        <v>0.3310740838838982</v>
+      </c>
+      <c r="J40">
+        <v>0.4310740838839067</v>
+      </c>
+      <c r="K40">
+        <v>0.4310740838839067</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>1.844494952278143</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>1.344494952278157</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>-1.95550504772184</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.8444949522781571</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>0.6444949522781542</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.9444949522781514</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>0.6444949522781542</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.7444949522781628</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>0.7444949522781628</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>0.8444949522781571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.746543788682611</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>-2.553456211317386</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>0.246543788682611</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>0.04654378868260822</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>0.3465437886826053</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>0.04654378868260822</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>0.1465437886826167</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>0.1465437886826167</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>0.246543788682611</v>
+      </c>
+      <c r="K42">
+        <v>-0.2534562113173748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>-2.65781059791856</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>0.1421894020814378</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>-0.05781059791856499</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>0.2421894020814321</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>-0.05781059791856499</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>0.04218940208144348</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>0.04218940208144348</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>0.1421894020814378</v>
+      </c>
+      <c r="J43">
+        <v>-0.357810597918548</v>
+      </c>
+      <c r="K43">
+        <v>-0.2578105979185821</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>-0.059948979259083</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>-0.2599489792590858</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>0.04005102074091132</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>-0.2599489792590858</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>-0.1599489792590773</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.1599489792590773</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>-0.059948979259083</v>
+      </c>
+      <c r="I44">
+        <v>-0.5599489792590688</v>
+      </c>
+      <c r="J44">
+        <v>-0.4599489792591029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>-0.1665024842129383</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.1334975157870588</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>-0.1665024842129383</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>-0.06650248421292981</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.06650248421292981</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>0.0334975157870645</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>-0.4665024842129213</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>-0.3665024842129554</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>-0.306554028195724</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>-0.6065540281957211</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>-0.5065540281957126</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-0.5065540281957126</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-0.4065540281957183</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>-0.9065540281957041</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>-0.8065540281957382</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-0.176570966028531</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>-0.07657096602852248</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.07657096602852248</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>0.02342903397147183</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.476570966028514</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.3765709660285481</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>-0.01952633654686198</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.01952633654686198</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>0.08047366345313234</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>-0.4195263365468535</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>-0.3195263365468876</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>0.02083567343742339</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>0.1208356734374177</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.3791643265625681</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.2791643265626022</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>0.1708795756445881</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>-0.3291204243553977</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.2291204243554318</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.01566635435963382</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>0.08433364564033208</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>0.0449618533261173</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.9968901669740333</v>
+      </c>
+      <c r="C2">
         <v>-0.8805955657593145</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.5069528242616244</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.4339688269606157</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.45159767760466</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1243398154871258</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.2009772202714615</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.2582808084970978</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.5746033304100919</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.6950333578593086</v>
-      </c>
-      <c r="K2">
-        <v>1.467849565765938</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-0.5137324281341251</v>
+      </c>
+      <c r="C3">
         <v>-0.4407484308331164</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.4448180737321593</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1175602116146251</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.2077568241439622</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2515012046245971</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.5678237265375912</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.7018129617318094</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.461069961893438</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.7509096299062663</v>
-      </c>
-      <c r="K3">
-        <v>0.5476509434620112</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.5983974835590175</v>
+      </c>
+      <c r="C4">
         <v>0.2711396214414833</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.05417741431710399</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.4050806144514553</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.7214031363644493</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.5482335519049512</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.614649371720296</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.5973302200794081</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.7012303532888694</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.7661743520781902</v>
-      </c>
-      <c r="K4">
-        <v>-0.06870760544149734</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-0.1593915913827771</v>
+      </c>
+      <c r="C5">
         <v>0.2998664373857821</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.6161889592987762</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.6534477289706243</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.509435194654623</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.7025443971450812</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.5960161762231962</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.8713885291438633</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-0.1739217825071705</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.1347526699784595</v>
-      </c>
-      <c r="K5">
-        <v>-0.1604370240470189</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.644743348631178</v>
+      </c>
+      <c r="C6">
         <v>-0.6248933396382226</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.537989583987024</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.6739900078126795</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.624570565555598</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.8428341398114616</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.1453673931747687</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.1061982806460577</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.1318826347146171</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.2521925871408797</v>
-      </c>
-      <c r="K6">
-        <v>0.695163569424335</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>1.766189672707522</v>
+      </c>
+      <c r="C7">
         <v>-0.4457899190921821</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.8527706542760953</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.6146340510909643</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.08283269554572859</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.1220018080744396</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.09631745400588021</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.480392675861377</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.9233636581448323</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.301972700247471</v>
-      </c>
-      <c r="K7">
-        <v>0.5338778105742918</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.798976649332964</v>
+      </c>
+      <c r="C8">
         <v>-0.6684280560340956</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.02903869060259723</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.06820780313130825</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.04252344906274885</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.4265986709182457</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.869569653201701</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.2481786953043396</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.4800838056311604</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.762484353232189</v>
-      </c>
-      <c r="K8">
-        <v>0.8342299225018408</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-0.00546165446996838</v>
+      </c>
+      <c r="C9">
         <v>0.03370745805874265</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.008023103990183245</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3920983258456801</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.8350693081291354</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.213678350231774</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.4455834605585948</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.7279840081596234</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.7997295774292752</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.1336354972235653</v>
-      </c>
-      <c r="K9">
-        <v>0.9314921964568299</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.1511032819443827</v>
+      </c>
+      <c r="C10">
         <v>0.2329719399111141</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.6759429221945694</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.0545519642972081</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.2864570746240289</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.5688576222250575</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.6406031914947093</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.02549088871100058</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.7723658105222641</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.002159117886240847</v>
-      </c>
-      <c r="K10">
-        <v>-0.0184117566052564</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.5835524436885378</v>
+      </c>
+      <c r="C11">
         <v>-0.0378385142088235</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.1940665961179973</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.4764671437190259</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.5482127129886777</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.1178813672170322</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.6799753320162325</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.09023136061979076</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.110802235111288</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.3019400804496201</v>
-      </c>
-      <c r="K11">
-        <v>0.009224309935027042</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.0241721982862301</v>
+      </c>
+      <c r="C12">
         <v>0.3065727458872587</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3783183151569105</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.2877757650487994</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.5100809341844652</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.2601257584515579</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.2806966329430552</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.4718344782813872</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.1606700878967402</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.5133648794547057</v>
-      </c>
-      <c r="K12">
-        <v>-0.4946652875150832</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.4283062043376831</v>
+      </c>
+      <c r="C13">
         <v>-0.2377878758680268</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.5600688233652378</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.2101378692707854</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.2307087437622826</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.4218465891006147</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.1106821987159676</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.4633769902739331</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.4446773983343106</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-1.039922538775418</v>
-      </c>
-      <c r="K13">
-        <v>-0.6574085351318828</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>0.576932908904128</v>
+      </c>
+      <c r="C14">
         <v>-0.1932737837318953</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.2138446582233925</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.4049825035617246</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.09381811317707747</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.446512904735043</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.4278133127954206</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-1.023058453236528</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.6405444495929927</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.2371643746415927</v>
-      </c>
-      <c r="K14">
-        <v>-0.9198136108375353</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.2753517852714809</v>
+      </c>
+      <c r="C15">
         <v>-0.4664896306098129</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.1553252402251658</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.5080200317831313</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.4893204398435088</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-1.084565580284617</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.702051576641081</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.298671501689681</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.9813207378856236</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-0.7888209698777743</v>
-      </c>
-      <c r="K15">
-        <v>-0.0974783708198558</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.04186845860645566</v>
+      </c>
+      <c r="C16">
         <v>-0.3945632501644212</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.3758636582247987</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.9711087986659064</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.5885947950223709</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.1852147200709709</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.8678639562669135</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.6753641882590642</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.01597841079885431</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.1349179133349992</v>
-      </c>
-      <c r="K16">
-        <v>0.1160687720202162</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-0.3365661480413152</v>
+      </c>
+      <c r="C17">
         <v>-0.9318112884824229</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.5492972848388874</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.1459172098874874</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.82856644608343</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.6360666780755807</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.0552759209823378</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.09562040315151571</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.1553662822036997</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.3589200232542836</v>
-      </c>
-      <c r="K17">
-        <v>-0.1766892918391264</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.3922995555406686</v>
+      </c>
+      <c r="C18">
         <v>0.0110805194107314</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.6715687167852111</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.4790689487773619</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.2122736502805566</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.0613773261467031</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.3123640115019185</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.5159177525525025</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.01969156254090759</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.004636501879239</v>
-      </c>
-      <c r="K18">
-        <v>-0.1048325381916953</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-0.6210659238887177</v>
+      </c>
+      <c r="C19">
         <v>-0.4285661558808684</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.2627764431770501</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.1118801190431966</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.362866804398412</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.5664205454489959</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.03081123035558586</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.055139294775732</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.05432974529520185</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.3310718212921344</v>
-      </c>
-      <c r="K19">
-        <v>-1.097000022530988</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.5338979108893327</v>
+      </c>
+      <c r="C20">
         <v>0.3830015867554792</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.6339882721106946</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.8375420131612785</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.3019326980678685</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.326260762488015</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.2167917224170808</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.602193289004417</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-0.8258785548187051</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.102193289004417</v>
-      </c>
-      <c r="K20">
-        <v>0.2999015242756358</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>0.5151485243694764</v>
+      </c>
+      <c r="C21">
         <v>0.7187022654200603</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.1830929503266503</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1.207421014746797</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.09795197467586259</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.4833535412631988</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-0.9447183025599233</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.9833535412631988</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.1810617765344176</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-0.0715303516498722</v>
-      </c>
-      <c r="K21">
-        <v>0.3338898198501539</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.09916770207157699</v>
+      </c>
+      <c r="C22">
         <v>1.123495766491723</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.01402672642078928</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.3994282930081255</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-1.028643550814996</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.8994282930081254</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.09713652827934427</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-0.1554555999049455</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.2499645715950806</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.3994282930081255</v>
-      </c>
-      <c r="K22">
-        <v>-0.8507567514039126</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>1.193985999140212</v>
+      </c>
+      <c r="C23">
         <v>0.0845169590692777</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.4699185256566139</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-0.9581533181665082</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.9699185256566139</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.1676267609278327</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-0.08496536725645709</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.320454804243569</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.4699185256566139</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.7802665187554242</v>
-      </c>
-      <c r="K23">
-        <v>0.319918526656609</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>-0.06528081633010596</v>
+      </c>
+      <c r="C24">
         <v>0.3201207502572302</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-1.107951093565892</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.8201207502572303</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.01782898552844903</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-0.2347631426558408</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.1706570288441854</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.3201207502572302</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.9300642941548078</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.1701207512572254</v>
-      </c>
-      <c r="K24">
-        <v>-0.1798792497427868</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,31 +1405,31 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>0.2590282826230719</v>
+      </c>
+      <c r="C25">
         <v>-1.16904356120005</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.7590282826230719</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-0.04326348210570935</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.2958556102899991</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.109564561210027</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.2590282826230719</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-0.9911567617889663</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.109028283623067</v>
-      </c>
-      <c r="J25">
-        <v>-0.2409717173769452</v>
       </c>
       <c r="K25">
         <v>-0.2409717173769452</v>
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>-1.313107658275612</v>
+      </c>
+      <c r="C26">
         <v>0.6149641855475096</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-0.1873275791812716</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.4399197073655614</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.03449953586553528</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.1149641855475096</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-1.135220858864529</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-0.03503581345249529</v>
-      </c>
-      <c r="I26">
-        <v>-0.3850358144525075</v>
       </c>
       <c r="J26">
         <v>-0.3850358144525075</v>
       </c>
       <c r="K26">
-        <v>-0.4850358144524876</v>
+        <v>-0.3850358144525075</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>0.6642737575166238</v>
+      </c>
+      <c r="C27">
         <v>-0.1380180072121575</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.3906101353964473</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.01481003610357884</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.1642737575166237</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-1.085911286895414</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.01427375851661883</v>
-      </c>
-      <c r="H27">
-        <v>-0.3357262424833933</v>
       </c>
       <c r="I27">
         <v>-0.3357262424833933</v>
       </c>
       <c r="J27">
+        <v>-0.3357262424833933</v>
+      </c>
+      <c r="K27">
         <v>-0.4357262424833734</v>
-      </c>
-      <c r="K27">
-        <v>1.164273757516621</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>-0.2066090644766712</v>
+      </c>
+      <c r="C28">
         <v>-0.4592011926609609</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-0.05378102116093481</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.09568270025211006</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-1.154502344159928</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-0.05431729874789482</v>
-      </c>
-      <c r="G28">
-        <v>-0.404317299747907</v>
       </c>
       <c r="H28">
         <v>-0.404317299747907</v>
       </c>
       <c r="I28">
+        <v>-0.404317299747907</v>
+      </c>
+      <c r="J28">
         <v>-0.5043172997478871</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1.095682700252107</v>
-      </c>
-      <c r="K28">
-        <v>-0.2043172997478757</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-0.3571769562879595</v>
+      </c>
+      <c r="C29">
         <v>0.04824321521206659</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.1977069366251115</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-1.052478107786927</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.04770693762510658</v>
-      </c>
-      <c r="F29">
-        <v>-0.3022930633749056</v>
       </c>
       <c r="G29">
         <v>-0.3022930633749056</v>
       </c>
       <c r="H29">
+        <v>-0.3022930633749056</v>
+      </c>
+      <c r="I29">
         <v>-0.4022930633748857</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1.197706936625109</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.1022930633748743</v>
-      </c>
-      <c r="K29">
-        <v>0.3977069366250831</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>0.1065787042164018</v>
+      </c>
+      <c r="C30">
         <v>0.2560424256294467</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-0.9941426187825915</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.1060424266294418</v>
-      </c>
-      <c r="E30">
-        <v>-0.2439575743705704</v>
       </c>
       <c r="F30">
         <v>-0.2439575743705704</v>
       </c>
       <c r="G30">
+        <v>-0.2439575743705704</v>
+      </c>
+      <c r="H30">
         <v>-0.3439575743705505</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1.256042425629444</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.0439575743705391</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.4560424256294183</v>
-      </c>
-      <c r="K30">
-        <v>-0.04395757437056752</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>0.3104969640015966</v>
+      </c>
+      <c r="C31">
         <v>-0.9396880804104415</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.1604969650015917</v>
-      </c>
-      <c r="D31">
-        <v>-0.1895030359984204</v>
       </c>
       <c r="E31">
         <v>-0.1895030359984204</v>
       </c>
       <c r="F31">
+        <v>-0.1895030359984204</v>
+      </c>
+      <c r="G31">
         <v>-0.2895030359984005</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.310496964001594</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.01049696400161082</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.5104969640015682</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.0104969640015824</v>
-      </c>
-      <c r="K31">
-        <v>-0.1895030359984204</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>-0.9677390482312431</v>
+      </c>
+      <c r="C32">
         <v>0.13244599718079</v>
-      </c>
-      <c r="C32">
-        <v>-0.2175540038192221</v>
       </c>
       <c r="D32">
         <v>-0.2175540038192221</v>
       </c>
       <c r="E32">
+        <v>-0.2175540038192221</v>
+      </c>
+      <c r="F32">
         <v>-0.3175540038192022</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1.282445996180792</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.01755400381919087</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.4824459961807665</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-0.01755400381921929</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-0.2175540038192221</v>
-      </c>
-      <c r="K32">
-        <v>1.482445996180781</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.0383647352326586</v>
+        <v>0.3116352657673536</v>
       </c>
       <c r="C33">
         <v>-0.0383647352326586</v>
       </c>
       <c r="D33">
+        <v>-0.0383647352326586</v>
+      </c>
+      <c r="E33">
         <v>-0.1383647352326387</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1.461635264767356</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.1616352647673727</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.66163526476733</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.1616352647673442</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.0383647352326586</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1.661635264767344</v>
-      </c>
-      <c r="K33">
-        <v>1.161635264767358</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1723,31 +1723,31 @@
         <v>0.1112330760475777</v>
       </c>
       <c r="C34">
+        <v>0.1112330760475777</v>
+      </c>
+      <c r="D34">
         <v>0.0112330760475976</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.611233076047592</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.311233076047609</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.8112330760475663</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.3112330760475805</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.1112330760475777</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1.811233076047581</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1.311233076047595</v>
-      </c>
-      <c r="K34">
-        <v>-1.988766923952402</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>-0.01625761471015841</v>
+      </c>
+      <c r="C35">
         <v>-0.1162576147101385</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.483742385289856</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.1837423852898729</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.6837423852898302</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.1837423852898444</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.01625761471015841</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1.683742385289845</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1.183742385289859</v>
-      </c>
-      <c r="J35">
-        <v>-2.116257614710138</v>
-      </c>
-      <c r="K35">
-        <v>0.6837423852898586</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>-0.03742992556897007</v>
+      </c>
+      <c r="C36">
         <v>1.562570074431024</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.2625700744310413</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.7625700744309987</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.2625700744310129</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.06257007443101004</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1.762570074431013</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1.262570074431027</v>
-      </c>
-      <c r="I36">
-        <v>-2.03742992556897</v>
-      </c>
-      <c r="J36">
-        <v>0.7625700744310271</v>
-      </c>
-      <c r="K36">
-        <v>0.5625700744310242</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>1.382699792823864</v>
+      </c>
+      <c r="C37">
         <v>0.08269979282388107</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.5826997928238384</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.08269979282385265</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.1173002071761502</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1.582699792823853</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1.082699792823867</v>
-      </c>
-      <c r="H37">
-        <v>-2.21730020717613</v>
-      </c>
-      <c r="I37">
-        <v>0.5826997928238669</v>
-      </c>
-      <c r="J37">
-        <v>0.3826997928238641</v>
-      </c>
-      <c r="K37">
-        <v>0.6826997928238612</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0.1947502057050116</v>
+      </c>
+      <c r="C38">
         <v>0.6947502057049689</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.1947502057049831</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.005249794295019705</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1.694750205704983</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1.194750205704997</v>
-      </c>
-      <c r="G38">
-        <v>-2.105249794295</v>
-      </c>
-      <c r="H38">
-        <v>0.6947502057049973</v>
-      </c>
-      <c r="I38">
-        <v>0.4947502057049946</v>
-      </c>
-      <c r="J38">
-        <v>0.7947502057049917</v>
-      </c>
-      <c r="K38">
-        <v>0.4947502057049946</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0.5753535531026636</v>
+      </c>
+      <c r="C39">
         <v>0.07535355310267777</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-0.1246464468973251</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.575353553102678</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1.075353553102692</v>
-      </c>
-      <c r="F39">
-        <v>-2.224646446897305</v>
-      </c>
-      <c r="G39">
-        <v>0.575353553102692</v>
-      </c>
-      <c r="H39">
-        <v>0.3753535531026892</v>
-      </c>
-      <c r="I39">
-        <v>0.6753535531026863</v>
-      </c>
-      <c r="J39">
-        <v>0.3753535531026892</v>
-      </c>
-      <c r="K39">
-        <v>0.4753535531026977</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0.03107408388388677</v>
+      </c>
+      <c r="C40">
         <v>-0.1689259161161161</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.531074083883887</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.031074083883901</v>
-      </c>
-      <c r="E40">
-        <v>-2.268925916116096</v>
-      </c>
-      <c r="F40">
-        <v>0.531074083883901</v>
-      </c>
-      <c r="G40">
-        <v>0.3310740838838982</v>
-      </c>
-      <c r="H40">
-        <v>0.6310740838838953</v>
-      </c>
-      <c r="I40">
-        <v>0.3310740838838982</v>
-      </c>
-      <c r="J40">
-        <v>0.4310740838839067</v>
-      </c>
-      <c r="K40">
-        <v>0.4310740838839067</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0.14449495227814</v>
+      </c>
+      <c r="C41">
         <v>1.844494952278143</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1.344494952278157</v>
-      </c>
-      <c r="D41">
-        <v>-1.95550504772184</v>
-      </c>
-      <c r="E41">
-        <v>0.8444949522781571</v>
-      </c>
-      <c r="F41">
-        <v>0.6444949522781542</v>
-      </c>
-      <c r="G41">
-        <v>0.9444949522781514</v>
-      </c>
-      <c r="H41">
-        <v>0.6444949522781542</v>
-      </c>
-      <c r="I41">
-        <v>0.7444949522781628</v>
-      </c>
-      <c r="J41">
-        <v>0.7444949522781628</v>
-      </c>
-      <c r="K41">
-        <v>0.8444949522781571</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>1.246543788682597</v>
+      </c>
+      <c r="C42">
         <v>0.746543788682611</v>
-      </c>
-      <c r="C42">
-        <v>-2.553456211317386</v>
-      </c>
-      <c r="D42">
-        <v>0.246543788682611</v>
-      </c>
-      <c r="E42">
-        <v>0.04654378868260822</v>
-      </c>
-      <c r="F42">
-        <v>0.3465437886826053</v>
-      </c>
-      <c r="G42">
-        <v>0.04654378868260822</v>
-      </c>
-      <c r="H42">
-        <v>0.1465437886826167</v>
-      </c>
-      <c r="I42">
-        <v>0.1465437886826167</v>
-      </c>
-      <c r="J42">
-        <v>0.246543788682611</v>
-      </c>
-      <c r="K42">
-        <v>-0.2534562113173748</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-2.65781059791856</v>
-      </c>
-      <c r="C43">
-        <v>0.1421894020814378</v>
-      </c>
-      <c r="D43">
-        <v>-0.05781059791856499</v>
-      </c>
-      <c r="E43">
-        <v>0.2421894020814321</v>
-      </c>
-      <c r="F43">
-        <v>-0.05781059791856499</v>
-      </c>
-      <c r="G43">
-        <v>0.04218940208144348</v>
-      </c>
-      <c r="H43">
-        <v>0.04218940208144348</v>
-      </c>
-      <c r="I43">
-        <v>0.1421894020814378</v>
-      </c>
-      <c r="J43">
-        <v>-0.357810597918548</v>
-      </c>
-      <c r="K43">
-        <v>-0.2578105979185821</v>
+        <v>0.6421894020814378</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>-0.059948979259083</v>
-      </c>
-      <c r="C44">
-        <v>-0.2599489792590858</v>
-      </c>
-      <c r="D44">
-        <v>0.04005102074091132</v>
-      </c>
-      <c r="E44">
-        <v>-0.2599489792590858</v>
-      </c>
-      <c r="F44">
-        <v>-0.1599489792590773</v>
-      </c>
-      <c r="G44">
-        <v>-0.1599489792590773</v>
-      </c>
-      <c r="H44">
-        <v>-0.059948979259083</v>
-      </c>
-      <c r="I44">
-        <v>-0.5599489792590688</v>
-      </c>
-      <c r="J44">
-        <v>-0.4599489792591029</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>-0.1665024842129383</v>
-      </c>
-      <c r="C45">
-        <v>0.1334975157870588</v>
-      </c>
-      <c r="D45">
-        <v>-0.1665024842129383</v>
-      </c>
-      <c r="E45">
-        <v>-0.06650248421292981</v>
-      </c>
-      <c r="F45">
-        <v>-0.06650248421292981</v>
-      </c>
-      <c r="G45">
-        <v>0.0334975157870645</v>
-      </c>
-      <c r="H45">
-        <v>-0.4665024842129213</v>
-      </c>
-      <c r="I45">
-        <v>-0.3665024842129554</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>-0.306554028195724</v>
-      </c>
-      <c r="C46">
-        <v>-0.6065540281957211</v>
-      </c>
-      <c r="D46">
-        <v>-0.5065540281957126</v>
-      </c>
-      <c r="E46">
-        <v>-0.5065540281957126</v>
-      </c>
-      <c r="F46">
-        <v>-0.4065540281957183</v>
-      </c>
-      <c r="G46">
-        <v>-0.9065540281957041</v>
-      </c>
-      <c r="H46">
-        <v>-0.8065540281957382</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-0.176570966028531</v>
-      </c>
-      <c r="C47">
-        <v>-0.07657096602852248</v>
-      </c>
-      <c r="D47">
-        <v>-0.07657096602852248</v>
-      </c>
-      <c r="E47">
-        <v>0.02342903397147183</v>
-      </c>
-      <c r="F47">
-        <v>-0.476570966028514</v>
-      </c>
-      <c r="G47">
-        <v>-0.3765709660285481</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>-0.01952633654686198</v>
-      </c>
-      <c r="C48">
-        <v>-0.01952633654686198</v>
-      </c>
-      <c r="D48">
-        <v>0.08047366345313234</v>
-      </c>
-      <c r="E48">
-        <v>-0.4195263365468535</v>
-      </c>
-      <c r="F48">
-        <v>-0.3195263365468876</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>0.02083567343742339</v>
-      </c>
-      <c r="C49">
-        <v>0.1208356734374177</v>
-      </c>
-      <c r="D49">
-        <v>-0.3791643265625681</v>
-      </c>
-      <c r="E49">
-        <v>-0.2791643265626022</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>0.1708795756445881</v>
-      </c>
-      <c r="C50">
-        <v>-0.3291204243553977</v>
-      </c>
-      <c r="D50">
-        <v>-0.2291204243554318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.01566635435963382</v>
-      </c>
-      <c r="C51">
-        <v>0.08433364564033208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>0.0449618533261173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>-0.9300642941548078</v>
       </c>
       <c r="K24">
-        <v>0.1701207512572254</v>
+        <v>-0.2401694470146267</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>-0.9911567617889663</v>
       </c>
       <c r="J25">
-        <v>0.109028283623067</v>
+        <v>-0.3012619146487851</v>
       </c>
       <c r="K25">
-        <v>-0.2409717173769452</v>
+        <v>0.9653040704216436</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>-1.135220858864529</v>
       </c>
       <c r="I26">
-        <v>-0.03503581345249529</v>
+        <v>-0.4453260117243474</v>
       </c>
       <c r="J26">
-        <v>-0.3850358144525075</v>
+        <v>0.8212399733460813</v>
       </c>
       <c r="K26">
-        <v>-0.3850358144525075</v>
+        <v>0.1149727305944879</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>-1.085911286895414</v>
       </c>
       <c r="H27">
-        <v>0.01427375851661883</v>
+        <v>-0.3960164397552333</v>
       </c>
       <c r="I27">
-        <v>-0.3357262424833933</v>
+        <v>0.8705495453151955</v>
       </c>
       <c r="J27">
-        <v>-0.3357262424833933</v>
+        <v>0.164282302563602</v>
       </c>
       <c r="K27">
-        <v>-0.4357262424833734</v>
+        <v>-1.445378088853165</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>-1.154502344159928</v>
       </c>
       <c r="G28">
-        <v>-0.05431729874789482</v>
+        <v>-0.4646074970197469</v>
       </c>
       <c r="H28">
-        <v>-0.404317299747907</v>
+        <v>0.8019584880506818</v>
       </c>
       <c r="I28">
-        <v>-0.404317299747907</v>
+        <v>0.09569124529908837</v>
       </c>
       <c r="J28">
-        <v>-0.5043172997478871</v>
+        <v>-1.513969146117679</v>
       </c>
       <c r="K28">
-        <v>1.095682700252107</v>
+        <v>2.514191877581562</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>-1.052478107786927</v>
       </c>
       <c r="F29">
-        <v>0.04770693762510658</v>
+        <v>-0.3625832606467455</v>
       </c>
       <c r="G29">
-        <v>-0.3022930633749056</v>
+        <v>0.9039827244236832</v>
       </c>
       <c r="H29">
-        <v>-0.3022930633749056</v>
+        <v>0.1977154816720898</v>
       </c>
       <c r="I29">
-        <v>-0.4022930633748857</v>
+        <v>-1.411944909744677</v>
       </c>
       <c r="J29">
-        <v>1.197706936625109</v>
+        <v>2.616216113954564</v>
       </c>
       <c r="K29">
-        <v>-0.1022930633748743</v>
+        <v>-0.5603787180733534</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>-0.9941426187825915</v>
       </c>
       <c r="E30">
-        <v>0.1060424266294418</v>
+        <v>-0.3042477716424103</v>
       </c>
       <c r="F30">
-        <v>-0.2439575743705704</v>
+        <v>0.9623182134280184</v>
       </c>
       <c r="G30">
-        <v>-0.2439575743705704</v>
+        <v>0.256050970676425</v>
       </c>
       <c r="H30">
-        <v>-0.3439575743705505</v>
+        <v>-1.353609420740342</v>
       </c>
       <c r="I30">
-        <v>1.256042425629444</v>
+        <v>2.674551602958899</v>
       </c>
       <c r="J30">
-        <v>-0.0439575743705391</v>
+        <v>-0.5020432290690182</v>
       </c>
       <c r="K30">
-        <v>0.4560424256294183</v>
+        <v>0.3875911078309982</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>-0.9396880804104415</v>
       </c>
       <c r="D31">
-        <v>0.1604969650015917</v>
+        <v>-0.2497932332702604</v>
       </c>
       <c r="E31">
-        <v>-0.1895030359984204</v>
+        <v>1.016772751800168</v>
       </c>
       <c r="F31">
-        <v>-0.1895030359984204</v>
+        <v>0.3105055090485749</v>
       </c>
       <c r="G31">
-        <v>-0.2895030359984005</v>
+        <v>-1.299154882368192</v>
       </c>
       <c r="H31">
-        <v>1.310496964001594</v>
+        <v>2.729006141331049</v>
       </c>
       <c r="I31">
-        <v>0.01049696400161082</v>
+        <v>-0.4475886906968682</v>
       </c>
       <c r="J31">
-        <v>0.5104969640015682</v>
+        <v>0.4420456462031481</v>
       </c>
       <c r="K31">
-        <v>0.0104969640015824</v>
+        <v>-1.833582676193962</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>-0.9677390482312431</v>
       </c>
       <c r="C32">
-        <v>0.13244599718079</v>
+        <v>-0.2778442010910621</v>
       </c>
       <c r="D32">
-        <v>-0.2175540038192221</v>
+        <v>0.9887217839793667</v>
       </c>
       <c r="E32">
-        <v>-0.2175540038192221</v>
+        <v>0.2824545412277732</v>
       </c>
       <c r="F32">
-        <v>-0.3175540038192022</v>
+        <v>-1.327205850188994</v>
       </c>
       <c r="G32">
-        <v>1.282445996180792</v>
+        <v>2.700955173510247</v>
       </c>
       <c r="H32">
-        <v>-0.01755400381919087</v>
+        <v>-0.4756396585176699</v>
       </c>
       <c r="I32">
-        <v>0.4824459961807665</v>
+        <v>0.4139946783823464</v>
       </c>
       <c r="J32">
-        <v>-0.01755400381921929</v>
+        <v>-1.861633644014764</v>
       </c>
       <c r="K32">
-        <v>-0.2175540038192221</v>
+        <v>0.4824515838321392</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.3116352657673536</v>
+        <v>-0.1336561884836082</v>
       </c>
       <c r="C33">
-        <v>-0.0383647352326586</v>
+        <v>1.132909796586821</v>
       </c>
       <c r="D33">
-        <v>-0.0383647352326586</v>
+        <v>0.4266425538352271</v>
       </c>
       <c r="E33">
-        <v>-0.1383647352326387</v>
+        <v>-1.18301783758154</v>
       </c>
       <c r="F33">
-        <v>1.461635264767356</v>
+        <v>2.845143186117701</v>
       </c>
       <c r="G33">
-        <v>0.1616352647673727</v>
+        <v>-0.331451645910216</v>
       </c>
       <c r="H33">
-        <v>0.66163526476733</v>
+        <v>0.5581826909898003</v>
       </c>
       <c r="I33">
-        <v>0.1616352647673442</v>
+        <v>-1.71744563140731</v>
       </c>
       <c r="J33">
-        <v>-0.0383647352326586</v>
+        <v>0.6266395964395931</v>
       </c>
       <c r="K33">
-        <v>1.661635264767344</v>
+        <v>0.003271690537692051</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.1112330760475777</v>
+        <v>1.307066490313564</v>
       </c>
       <c r="C34">
-        <v>0.1112330760475777</v>
+        <v>0.6007992475619707</v>
       </c>
       <c r="D34">
-        <v>0.0112330760475976</v>
+        <v>-1.008861143854797</v>
       </c>
       <c r="E34">
-        <v>1.611233076047592</v>
+        <v>3.019299879844445</v>
       </c>
       <c r="F34">
-        <v>0.311233076047609</v>
+        <v>-0.1572949521834724</v>
       </c>
       <c r="G34">
-        <v>0.8112330760475663</v>
+        <v>0.7323393847165439</v>
       </c>
       <c r="H34">
-        <v>0.3112330760475805</v>
+        <v>-1.543288937680567</v>
       </c>
       <c r="I34">
-        <v>0.1112330760475777</v>
+        <v>0.8007962901663367</v>
       </c>
       <c r="J34">
-        <v>1.811233076047581</v>
+        <v>0.1774283842644356</v>
       </c>
       <c r="K34">
-        <v>1.311233076047595</v>
+        <v>5.68814648014622</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.01625761471015841</v>
+        <v>0.4257766076739633</v>
       </c>
       <c r="C35">
-        <v>-0.1162576147101385</v>
+        <v>-1.183883783742804</v>
       </c>
       <c r="D35">
-        <v>1.483742385289856</v>
+        <v>2.844277239956437</v>
       </c>
       <c r="E35">
-        <v>0.1837423852898729</v>
+        <v>-0.3323175920714798</v>
       </c>
       <c r="F35">
-        <v>0.6837423852898302</v>
+        <v>0.5573167448285365</v>
       </c>
       <c r="G35">
-        <v>0.1837423852898444</v>
+        <v>-1.718311577568574</v>
       </c>
       <c r="H35">
-        <v>-0.01625761471015841</v>
+        <v>0.6257736502783293</v>
       </c>
       <c r="I35">
-        <v>1.683742385289845</v>
+        <v>0.002405744376428265</v>
       </c>
       <c r="J35">
-        <v>1.183742385289859</v>
+        <v>5.513123840258213</v>
+      </c>
+      <c r="K35">
+        <v>0.548303282438791</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03742992556897007</v>
+        <v>-1.089199807152462</v>
       </c>
       <c r="C36">
-        <v>1.562570074431024</v>
+        <v>2.938961216546779</v>
       </c>
       <c r="D36">
-        <v>0.2625700744310413</v>
+        <v>-0.2376336154811378</v>
       </c>
       <c r="E36">
-        <v>0.7625700744309987</v>
+        <v>0.6520007214188785</v>
       </c>
       <c r="F36">
-        <v>0.2625700744310129</v>
+        <v>-1.623627600978232</v>
       </c>
       <c r="G36">
-        <v>0.06257007443101004</v>
+        <v>0.7204576268686713</v>
       </c>
       <c r="H36">
-        <v>1.762570074431013</v>
+        <v>0.09708972096677027</v>
       </c>
       <c r="I36">
-        <v>1.262570074431027</v>
+        <v>5.607807816848555</v>
+      </c>
+      <c r="J36">
+        <v>0.642987259029133</v>
+      </c>
+      <c r="K36">
+        <v>0.4972523523676307</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>1.382699792823864</v>
+        <v>2.991208970153319</v>
       </c>
       <c r="C37">
-        <v>0.08269979282388107</v>
+        <v>-0.1853858618745983</v>
       </c>
       <c r="D37">
-        <v>0.5826997928238384</v>
+        <v>0.7042484750254181</v>
       </c>
       <c r="E37">
-        <v>0.08269979282385265</v>
+        <v>-1.571379847371692</v>
       </c>
       <c r="F37">
-        <v>-0.1173002071761502</v>
+        <v>0.7727053804752109</v>
       </c>
       <c r="G37">
-        <v>1.582699792823853</v>
+        <v>0.1493374745733098</v>
       </c>
       <c r="H37">
-        <v>1.082699792823867</v>
+        <v>5.660055570455095</v>
+      </c>
+      <c r="I37">
+        <v>0.6952350126356726</v>
+      </c>
+      <c r="J37">
+        <v>0.5495001059741702</v>
+      </c>
+      <c r="K37">
+        <v>0.4253868890927299</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.1947502057050116</v>
+        <v>-0.2633354489934661</v>
       </c>
       <c r="C38">
-        <v>0.6947502057049689</v>
+        <v>0.6262988879065503</v>
       </c>
       <c r="D38">
-        <v>0.1947502057049831</v>
+        <v>-1.64932943449056</v>
       </c>
       <c r="E38">
-        <v>-0.005249794295019705</v>
+        <v>0.6947557933563431</v>
       </c>
       <c r="F38">
-        <v>1.694750205704983</v>
+        <v>0.07138788745444202</v>
       </c>
       <c r="G38">
-        <v>1.194750205704997</v>
+        <v>5.582105983336227</v>
+      </c>
+      <c r="H38">
+        <v>0.6172854255168048</v>
+      </c>
+      <c r="I38">
+        <v>0.4715505188553024</v>
+      </c>
+      <c r="J38">
+        <v>0.3474373019738621</v>
+      </c>
+      <c r="K38">
+        <v>1.121628485305244</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.5753535531026636</v>
+        <v>0.6469022353042405</v>
       </c>
       <c r="C39">
-        <v>0.07535355310267777</v>
+        <v>-1.62872608709287</v>
       </c>
       <c r="D39">
-        <v>-0.1246464468973251</v>
+        <v>0.7153591407540333</v>
       </c>
       <c r="E39">
-        <v>1.575353553102678</v>
+        <v>0.09199123485213223</v>
       </c>
       <c r="F39">
-        <v>1.075353553102692</v>
+        <v>5.602709330733918</v>
+      </c>
+      <c r="G39">
+        <v>0.637888772914495</v>
+      </c>
+      <c r="H39">
+        <v>0.4921538662529926</v>
+      </c>
+      <c r="I39">
+        <v>0.3680406493715523</v>
+      </c>
+      <c r="J39">
+        <v>1.142231832702934</v>
+      </c>
+      <c r="K39">
+        <v>-0.31932174300057</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.03107408388388677</v>
+        <v>-1.853005556311659</v>
       </c>
       <c r="C40">
-        <v>-0.1689259161161161</v>
+        <v>0.4910796715352439</v>
       </c>
       <c r="D40">
-        <v>1.531074083883887</v>
+        <v>-0.1322882343666572</v>
       </c>
       <c r="E40">
-        <v>1.031074083883901</v>
+        <v>5.378429861515128</v>
+      </c>
+      <c r="F40">
+        <v>0.4136093036957056</v>
+      </c>
+      <c r="G40">
+        <v>0.2678743970342032</v>
+      </c>
+      <c r="H40">
+        <v>0.1437611801527629</v>
+      </c>
+      <c r="I40">
+        <v>0.9179523634841451</v>
+      </c>
+      <c r="J40">
+        <v>-0.5436012122193594</v>
+      </c>
+      <c r="K40">
+        <v>0.05670714581054659</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.14449495227814</v>
+        <v>0.8890957203403786</v>
       </c>
       <c r="C41">
-        <v>1.844494952278143</v>
+        <v>0.2657278144384776</v>
       </c>
       <c r="D41">
-        <v>1.344494952278157</v>
+        <v>5.776445910320263</v>
+      </c>
+      <c r="E41">
+        <v>0.8116253525008403</v>
+      </c>
+      <c r="F41">
+        <v>0.665890445839338</v>
+      </c>
+      <c r="G41">
+        <v>0.5417772289578977</v>
+      </c>
+      <c r="H41">
+        <v>1.31596841228928</v>
+      </c>
+      <c r="I41">
+        <v>-0.1455851634142247</v>
+      </c>
+      <c r="J41">
+        <v>0.4547231946156813</v>
+      </c>
+      <c r="K41">
+        <v>0.4730809959422544</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>1.246543788682597</v>
+        <v>-0.1503833582008396</v>
       </c>
       <c r="C42">
-        <v>0.746543788682611</v>
+        <v>5.360334737680946</v>
+      </c>
+      <c r="D42">
+        <v>0.3955141798615231</v>
+      </c>
+      <c r="E42">
+        <v>0.2497792732000207</v>
+      </c>
+      <c r="F42">
+        <v>0.1256660563185804</v>
+      </c>
+      <c r="G42">
+        <v>0.8998572396499627</v>
+      </c>
+      <c r="H42">
+        <v>-0.5616963360535419</v>
+      </c>
+      <c r="I42">
+        <v>0.0386120219763641</v>
+      </c>
+      <c r="J42">
+        <v>0.05696982330293715</v>
+      </c>
+      <c r="K42">
+        <v>0.8153243866718058</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.6421894020814378</v>
+        <v>5.178024097175236</v>
+      </c>
+      <c r="C43">
+        <v>0.2132035393558141</v>
+      </c>
+      <c r="D43">
+        <v>0.06746863269431172</v>
+      </c>
+      <c r="E43">
+        <v>-0.05664458418712859</v>
+      </c>
+      <c r="F43">
+        <v>0.7175465991442536</v>
+      </c>
+      <c r="G43">
+        <v>-0.744006976559251</v>
+      </c>
+      <c r="H43">
+        <v>-0.1436986185293449</v>
+      </c>
+      <c r="I43">
+        <v>-0.1253408172027718</v>
+      </c>
+      <c r="J43">
+        <v>0.6330137461660968</v>
+      </c>
+      <c r="K43">
+        <v>-0.5012717062398651</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.4043520997521085</v>
+      </c>
+      <c r="C44">
+        <v>-0.5500870064136109</v>
+      </c>
+      <c r="D44">
+        <v>-0.6742002232950512</v>
+      </c>
+      <c r="E44">
+        <v>0.09999096003633101</v>
+      </c>
+      <c r="F44">
+        <v>-1.361562615667173</v>
+      </c>
+      <c r="G44">
+        <v>-0.7612542576372675</v>
+      </c>
+      <c r="H44">
+        <v>-0.7428964563106945</v>
+      </c>
+      <c r="I44">
+        <v>0.01545810705817424</v>
+      </c>
+      <c r="J44">
+        <v>-1.118827345347788</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-0.259964220622777</v>
+      </c>
+      <c r="C45">
+        <v>-0.3840774375042173</v>
+      </c>
+      <c r="D45">
+        <v>0.3901137458271649</v>
+      </c>
+      <c r="E45">
+        <v>-1.07143982987634</v>
+      </c>
+      <c r="F45">
+        <v>-0.4711314718464336</v>
+      </c>
+      <c r="G45">
+        <v>-0.4527736705198606</v>
+      </c>
+      <c r="H45">
+        <v>0.3055808928490081</v>
+      </c>
+      <c r="I45">
+        <v>-0.8287045595569538</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.2835772387253058</v>
+      </c>
+      <c r="C46">
+        <v>0.4906139446060763</v>
+      </c>
+      <c r="D46">
+        <v>-0.9709396310974282</v>
+      </c>
+      <c r="E46">
+        <v>-0.3706312730675222</v>
+      </c>
+      <c r="F46">
+        <v>-0.3522734717409491</v>
+      </c>
+      <c r="G46">
+        <v>0.4060810916279196</v>
+      </c>
+      <c r="H46">
+        <v>-0.7282043607780423</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>0.1465102285875062</v>
+      </c>
+      <c r="C47">
+        <v>-1.315043347115998</v>
+      </c>
+      <c r="D47">
+        <v>-0.7147349890860923</v>
+      </c>
+      <c r="E47">
+        <v>-0.6963771877595193</v>
+      </c>
+      <c r="F47">
+        <v>0.06197737560934941</v>
+      </c>
+      <c r="G47">
+        <v>-1.072308076796612</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>-0.9587741681389913</v>
+      </c>
+      <c r="C48">
+        <v>-0.3584658101090852</v>
+      </c>
+      <c r="D48">
+        <v>-0.3401080087825122</v>
+      </c>
+      <c r="E48">
+        <v>0.4182465545863565</v>
+      </c>
+      <c r="F48">
+        <v>-0.7160388978196054</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.2401767394741711</v>
+      </c>
+      <c r="C49">
+        <v>-0.2218189381475981</v>
+      </c>
+      <c r="D49">
+        <v>0.5365356252212706</v>
+      </c>
+      <c r="E49">
+        <v>-0.5977498271846913</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>-0.219261153323231</v>
+      </c>
+      <c r="C50">
+        <v>0.5390934100456377</v>
+      </c>
+      <c r="D50">
+        <v>-0.5951920423603241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0.7152142819569747</v>
+      </c>
+      <c r="C51">
+        <v>-0.4190711704489871</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>-0.377607739757282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>0.45159767760466</v>
       </c>
-      <c r="G2">
-        <v>0.1243398154871258</v>
-      </c>
-      <c r="H2">
-        <v>-0.2009772202714615</v>
-      </c>
-      <c r="I2">
-        <v>0.2582808084970978</v>
-      </c>
-      <c r="J2">
-        <v>0.5746033304100919</v>
-      </c>
-      <c r="K2">
-        <v>-0.6950333578593086</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>0.5678237265375912</v>
       </c>
-      <c r="I3">
-        <v>-0.7018129617318094</v>
-      </c>
-      <c r="J3">
-        <v>1.461069961893438</v>
-      </c>
-      <c r="K3">
-        <v>-0.7509096299062663</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>0.7214031363644493</v>
       </c>
-      <c r="G4">
-        <v>-0.5482335519049512</v>
-      </c>
-      <c r="H4">
-        <v>1.614649371720296</v>
-      </c>
-      <c r="I4">
-        <v>-0.5973302200794081</v>
-      </c>
-      <c r="J4">
-        <v>0.7012303532888694</v>
-      </c>
-      <c r="K4">
-        <v>-0.7661743520781902</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>0.5960161762231962</v>
       </c>
-      <c r="I5">
-        <v>-0.8713885291438633</v>
-      </c>
-      <c r="J5">
-        <v>-0.1739217825071705</v>
-      </c>
-      <c r="K5">
-        <v>-0.1347526699784595</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>0.624570565555598</v>
       </c>
-      <c r="G6">
-        <v>-0.8428341398114616</v>
-      </c>
-      <c r="H6">
-        <v>-0.1453673931747687</v>
-      </c>
-      <c r="I6">
-        <v>-0.1061982806460577</v>
-      </c>
-      <c r="J6">
-        <v>-0.1318826347146171</v>
-      </c>
-      <c r="K6">
-        <v>0.2521925871408797</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>0.09631745400588021</v>
       </c>
-      <c r="I7">
-        <v>0.480392675861377</v>
-      </c>
-      <c r="J7">
-        <v>0.9233636581448323</v>
-      </c>
-      <c r="K7">
-        <v>0.301972700247471</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>0.04252344906274885</v>
       </c>
-      <c r="G8">
-        <v>0.4265986709182457</v>
-      </c>
-      <c r="H8">
-        <v>0.869569653201701</v>
-      </c>
-      <c r="I8">
-        <v>0.2481786953043396</v>
-      </c>
-      <c r="J8">
-        <v>0.4800838056311604</v>
-      </c>
-      <c r="K8">
-        <v>0.762484353232189</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>0.4455834605585948</v>
       </c>
-      <c r="I9">
-        <v>0.7279840081596234</v>
-      </c>
-      <c r="J9">
-        <v>0.7997295774292752</v>
-      </c>
-      <c r="K9">
-        <v>0.1336354972235653</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>0.2864570746240289</v>
       </c>
-      <c r="G10">
-        <v>0.5688576222250575</v>
-      </c>
-      <c r="H10">
-        <v>0.6406031914947093</v>
-      </c>
-      <c r="I10">
-        <v>-0.02549088871100058</v>
-      </c>
-      <c r="J10">
-        <v>0.7723658105222641</v>
-      </c>
-      <c r="K10">
-        <v>0.002159117886240847</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.6799753320162325</v>
       </c>
-      <c r="I11">
-        <v>-0.09023136061979076</v>
-      </c>
-      <c r="J11">
-        <v>-0.110802235111288</v>
-      </c>
-      <c r="K11">
-        <v>-0.3019400804496201</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>0.5100809341844652</v>
       </c>
-      <c r="G12">
-        <v>-0.2601257584515579</v>
-      </c>
-      <c r="H12">
-        <v>-0.2806966329430552</v>
-      </c>
-      <c r="I12">
-        <v>-0.4718344782813872</v>
-      </c>
-      <c r="J12">
-        <v>-0.1606700878967402</v>
-      </c>
-      <c r="K12">
-        <v>-0.5133648794547057</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-0.1106821987159676</v>
       </c>
-      <c r="I13">
-        <v>-0.4633769902739331</v>
-      </c>
-      <c r="J13">
-        <v>-0.4446773983343106</v>
-      </c>
-      <c r="K13">
-        <v>-1.039922538775418</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-0.09381811317707747</v>
       </c>
-      <c r="G14">
-        <v>-0.446512904735043</v>
-      </c>
-      <c r="H14">
-        <v>-0.4278133127954206</v>
-      </c>
-      <c r="I14">
-        <v>-1.023058453236528</v>
-      </c>
-      <c r="J14">
-        <v>-0.6405444495929927</v>
-      </c>
-      <c r="K14">
-        <v>-0.2371643746415927</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>-0.702051576641081</v>
       </c>
-      <c r="I15">
-        <v>-0.298671501689681</v>
-      </c>
-      <c r="J15">
-        <v>-0.9813207378856236</v>
-      </c>
-      <c r="K15">
-        <v>-0.7888209698777743</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-0.5885947950223709</v>
       </c>
-      <c r="G16">
-        <v>-0.1852147200709709</v>
-      </c>
-      <c r="H16">
-        <v>-0.8678639562669135</v>
-      </c>
-      <c r="I16">
-        <v>-0.6753641882590642</v>
-      </c>
-      <c r="J16">
-        <v>0.01597841079885431</v>
-      </c>
-      <c r="K16">
-        <v>-0.1349179133349992</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>0.0552759209823378</v>
       </c>
-      <c r="I17">
-        <v>-0.09562040315151571</v>
-      </c>
-      <c r="J17">
-        <v>0.1553662822036997</v>
-      </c>
-      <c r="K17">
-        <v>0.3589200232542836</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>-0.01969156254090759</v>
       </c>
-      <c r="K18">
-        <v>1.004636501879239</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>0.03081123035558586</v>
       </c>
-      <c r="I19">
-        <v>1.055139294775732</v>
-      </c>
-      <c r="J19">
-        <v>-0.05432974529520185</v>
-      </c>
-      <c r="K19">
-        <v>0.3310718212921344</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>-0.8258785548187051</v>
       </c>
-      <c r="K20">
-        <v>1.102193289004417</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>-0.9447183025599233</v>
       </c>
-      <c r="I21">
-        <v>0.9833535412631988</v>
-      </c>
-      <c r="J21">
-        <v>0.1810617765344176</v>
-      </c>
-      <c r="K21">
-        <v>-0.0715303516498722</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>0.2499645715950806</v>
       </c>
-      <c r="K22">
-        <v>0.3994282930081255</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>0.320454804243569</v>
       </c>
-      <c r="J23">
-        <v>0.4699185256566139</v>
-      </c>
-      <c r="K23">
-        <v>-0.7802665187554242</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>0.1706570288441854</v>
       </c>
-      <c r="I24">
-        <v>0.3201207502572302</v>
-      </c>
-      <c r="J24">
-        <v>-0.9300642941548078</v>
-      </c>
-      <c r="K24">
-        <v>-0.2401694470146267</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>0.8212399733460813</v>
       </c>
-      <c r="K26">
-        <v>0.1149727305944879</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>0.8705495453151955</v>
       </c>
-      <c r="J27">
-        <v>0.164282302563602</v>
-      </c>
-      <c r="K27">
-        <v>-1.445378088853165</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>0.8019584880506818</v>
       </c>
-      <c r="I28">
-        <v>0.09569124529908837</v>
-      </c>
-      <c r="J28">
-        <v>-1.513969146117679</v>
-      </c>
-      <c r="K28">
-        <v>2.514191877581562</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>-0.5020432290690182</v>
       </c>
-      <c r="K30">
-        <v>0.3875911078309982</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>-0.4475886906968682</v>
       </c>
-      <c r="J31">
-        <v>0.4420456462031481</v>
-      </c>
-      <c r="K31">
-        <v>-1.833582676193962</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-0.4756396585176699</v>
       </c>
-      <c r="I32">
-        <v>0.4139946783823464</v>
-      </c>
-      <c r="J32">
-        <v>-1.861633644014764</v>
-      </c>
-      <c r="K32">
-        <v>0.4824515838321392</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>0.1774283842644356</v>
       </c>
-      <c r="K34">
-        <v>5.68814648014622</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>0.002405744376428265</v>
       </c>
-      <c r="J35">
-        <v>5.513123840258213</v>
-      </c>
-      <c r="K35">
-        <v>0.548303282438791</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>0.09708972096677027</v>
       </c>
-      <c r="I36">
-        <v>5.607807816848555</v>
-      </c>
-      <c r="J36">
-        <v>0.642987259029133</v>
-      </c>
-      <c r="K36">
-        <v>0.4972523523676307</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>0.3474373019738621</v>
       </c>
-      <c r="K38">
-        <v>1.121628485305244</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>0.3680406493715523</v>
       </c>
-      <c r="J39">
-        <v>1.142231832702934</v>
-      </c>
-      <c r="K39">
-        <v>-0.31932174300057</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>0.1437611801527629</v>
       </c>
-      <c r="I40">
-        <v>0.9179523634841451</v>
-      </c>
-      <c r="J40">
-        <v>-0.5436012122193594</v>
-      </c>
-      <c r="K40">
-        <v>0.05670714581054659</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>0.05696982330293715</v>
       </c>
-      <c r="K42">
-        <v>0.8153243866718058</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>-0.1253408172027718</v>
       </c>
-      <c r="J43">
-        <v>0.6330137461660968</v>
-      </c>
-      <c r="K43">
-        <v>-0.5012717062398651</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>-0.7428964563106945</v>
-      </c>
-      <c r="I44">
-        <v>0.01545810705817424</v>
-      </c>
-      <c r="J44">
-        <v>-1.118827345347788</v>
       </c>
     </row>
     <row r="45" spans="1:11">
